--- a/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
+++ b/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指引说明" sheetId="1" r:id="rId1"/>
@@ -9151,7 +9151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -12484,8 +12484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12515,10 +12515,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="28"/>
@@ -12528,10 +12528,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="28"/>

--- a/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
+++ b/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="指引说明" sheetId="1" r:id="rId1"/>
@@ -3290,9 +3290,6 @@
     <t>0305更新备注</t>
   </si>
   <si>
-    <t>2021年“GDP增速”全国No.1：宜昌</t>
-  </si>
-  <si>
     <t>2021年，宜昌GDP增速16.8%，全国第一；襄阳、黄冈分列二、三位，GDP增速分别为14.7%与13.8%。</t>
   </si>
   <si>
@@ -3305,9 +3302,6 @@
     <t>配图更新</t>
   </si>
   <si>
-    <t>2020年“购房负担”全国最低：大庆</t>
-  </si>
-  <si>
     <t>2020年，大庆房价收入比（平均购房价格/普通劳动力平均月薪）0.64，全国最低；鞍山、六盘水分列二、三位，房价收入比指标为分别为0.67与0.70。</t>
   </si>
   <si>
@@ -3347,9 +3341,6 @@
     <t>制造业冠军企业</t>
   </si>
   <si>
-    <t>2020年“人均GDP”全国No.1：克拉玛依</t>
-  </si>
-  <si>
     <t>2020年，克拉玛依人均GDP18.1万元，全国第一；无锡、北京分列二、三位，人均GDP分别为16.6万元与16.5万元。</t>
   </si>
   <si>
@@ -3383,18 +3374,12 @@
     <t>标题、文字内容、配图均更新</t>
   </si>
   <si>
-    <t>2021年产业用地交易“最火爆”城市：重庆</t>
-  </si>
-  <si>
     <t>2021年，重庆土地成交项目共673个，披露总成交金额89.6亿元，总成交用地面积2625.1万平方米，三项指标均为全国第一。</t>
   </si>
   <si>
     <t>产业用地获取</t>
   </si>
   <si>
-    <t>2021年上市公司最青睐投资目的地：苏州</t>
-  </si>
-  <si>
     <t>2021年，苏州吸引上市公司投资项目50个，全国第一。上海、北京分列二、三位，投资项目分别为38个与35个。</t>
   </si>
   <si>
@@ -3407,9 +3392,6 @@
     <t>2021年，山东裕龙石化有限公司披露烟台龙口市产业用地成交金额162304.0万元，全国第一。</t>
   </si>
   <si>
-    <t>2020年“二三甲医院数量”全国No1：沈阳</t>
-  </si>
-  <si>
     <t>shutterstock_147152594_-_Copy_lo.png</t>
   </si>
   <si>
@@ -3429,10 +3411,6 @@
   </si>
   <si>
     <t>国家级经开区</t>
-  </si>
-  <si>
-    <t>ind_fsi_glb_ho_2357_lo (1).png</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>shutterstock_1890415855_lo.png</t>
@@ -3443,10 +3421,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>shutterstock_380243965_lo.png</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>bzi_gro_glb_ho_2173_lo.png</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3472,6 +3446,38 @@
   </si>
   <si>
     <t>金额单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年“GDP增速”全国No.1：&lt;div&gt;宜昌&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“购房负担”全国最低：&lt;div&gt;大庆&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“人均GDP”全国No.1：&lt;div&gt;克拉玛依&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年产业用地交易“最火爆”城市：&lt;div&gt;重庆&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年上市公司最青睐投资目的地：&lt;div&gt;苏州&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年“二三甲医院数量”全国No1：&lt;div&gt;沈阳&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shutterstock_131733137_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ind_man_glb_ho_2279_lo.png</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3843,7 +3849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -4062,6 +4068,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9177,7 +9186,7 @@
         <v>317</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -11989,8 +11998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12052,21 +12061,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="96" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D2" s="97" t="s">
         <v>1015</v>
       </c>
-      <c r="C2" s="97" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D2" s="97" t="s">
+      <c r="E2" s="98" t="s">
         <v>1016</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>1017</v>
       </c>
       <c r="F2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="97"/>
+      <c r="G2" s="107">
+        <v>44621</v>
+      </c>
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
       <c r="J2" s="97"/>
@@ -12074,14 +12085,14 @@
         <v>6</v>
       </c>
       <c r="L2" s="96" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M2" s="97"/>
       <c r="N2" s="100" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
@@ -12089,21 +12100,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1020</v>
+        <v>1066</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="D3" s="103" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E3" s="104" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="103"/>
+      <c r="G3" s="107">
+        <v>44621</v>
+      </c>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
       <c r="J3" s="103"/>
@@ -12111,11 +12124,11 @@
         <v>22</v>
       </c>
       <c r="L3" s="102" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M3" s="103"/>
       <c r="N3" s="100" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O3" s="101"/>
     </row>
@@ -12124,31 +12137,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="96" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F4" s="98" t="s">
         <v>1023</v>
       </c>
-      <c r="C4" s="97" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E4" s="98" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F4" s="98" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G4" s="97"/>
+      <c r="G4" s="107">
+        <v>44621</v>
+      </c>
       <c r="H4" s="99"/>
       <c r="I4" s="99"/>
       <c r="J4" s="97"/>
       <c r="K4" s="96" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="L4" s="96"/>
       <c r="M4" s="97"/>
       <c r="N4" s="105" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="O4" s="101"/>
     </row>
@@ -12157,26 +12172,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="96" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D5" s="97" t="s">
         <v>1028</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="E5" s="104" t="s">
         <v>1029</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="F5" s="98" t="s">
         <v>1030</v>
       </c>
-      <c r="E5" s="104" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F5" s="98" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G5" s="103"/>
+      <c r="G5" s="107">
+        <v>44621</v>
+      </c>
       <c r="H5" s="99"/>
       <c r="I5" s="99"/>
       <c r="J5" s="103"/>
       <c r="K5" s="102" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="L5" s="102" t="s">
         <v>62</v>
@@ -12190,21 +12207,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1034</v>
+        <v>1067</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="D6" s="103" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F6" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="103"/>
+      <c r="G6" s="107">
+        <v>44621</v>
+      </c>
       <c r="H6" s="99"/>
       <c r="I6" s="99"/>
       <c r="J6" s="103"/>
@@ -12212,12 +12231,12 @@
         <v>15</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M6" s="103"/>
       <c r="N6" s="100"/>
       <c r="O6" s="101" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="37.799999999999997" x14ac:dyDescent="0.35">
@@ -12225,31 +12244,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="96" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E7" s="98" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F7" s="98" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G7" s="97"/>
+        <v>1023</v>
+      </c>
+      <c r="G7" s="107">
+        <v>44621</v>
+      </c>
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="97"/>
       <c r="K7" s="96" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="L7" s="96"/>
       <c r="M7" s="97"/>
       <c r="N7" s="100" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O7" s="101"/>
     </row>
@@ -12258,35 +12279,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F8" s="106" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G8" s="103"/>
+        <v>1039</v>
+      </c>
+      <c r="G8" s="107">
+        <v>44621</v>
+      </c>
       <c r="H8" s="99"/>
       <c r="I8" s="99"/>
       <c r="J8" s="103"/>
       <c r="K8" s="102" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="L8" s="102" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M8" s="102" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="105" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="O8" s="101"/>
     </row>
@@ -12295,33 +12318,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1046</v>
+        <v>1068</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G9" s="103"/>
+        <v>1039</v>
+      </c>
+      <c r="G9" s="107">
+        <v>44621</v>
+      </c>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
       <c r="J9" s="103"/>
       <c r="K9" s="102" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="L9" s="102" t="s">
         <v>55</v>
       </c>
       <c r="M9" s="103"/>
       <c r="N9" s="100" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O9" s="101"/>
     </row>
@@ -12330,29 +12355,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="C10" s="103" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F10" s="106" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G10" s="103"/>
+        <v>1039</v>
+      </c>
+      <c r="G10" s="107">
+        <v>44621</v>
+      </c>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
       <c r="J10" s="103"/>
       <c r="K10" s="102" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="L10" s="102" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="M10" s="103" t="s">
         <v>56</v>
@@ -12365,33 +12392,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E11" s="104" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F11" s="104" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G11" s="103"/>
+        <v>1039</v>
+      </c>
+      <c r="G11" s="107">
+        <v>44621</v>
+      </c>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
       <c r="J11" s="103"/>
       <c r="K11" s="102" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="L11" s="102" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="100" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O11" s="101"/>
     </row>
@@ -12400,26 +12429,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>1054</v>
+        <v>1070</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F12" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="97"/>
+      <c r="G12" s="107">
+        <v>44621</v>
+      </c>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
       <c r="J12" s="97"/>
       <c r="K12" s="96" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="L12" s="96" t="s">
         <v>73</v>
@@ -12433,31 +12464,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="E13" s="104" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>1060</v>
-      </c>
-      <c r="G13" s="103"/>
+        <v>1054</v>
+      </c>
+      <c r="G13" s="107">
+        <v>44621</v>
+      </c>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
       <c r="J13" s="103"/>
       <c r="K13" s="102" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="L13" s="102"/>
       <c r="M13" s="103"/>
       <c r="N13" s="100" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="O13" s="101"/>
     </row>
@@ -12484,8 +12517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>

--- a/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
+++ b/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="13" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="指引说明" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">城市排名data!$A$1:$F$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">指标data!$A$1:$G$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">指标data!$A$1:$H$1</definedName>
     <definedName name="省与直辖市">[1]省市分类!$A$1:$AH$1</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="1077">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3356,9 +3356,6 @@
     <t>北京vs上海</t>
   </si>
   <si>
-    <t>2021年A股披露最大手笔投资：中国移动北京项目</t>
-  </si>
-  <si>
     <t>2021年12月，上市公司中国移动披露将在北京西城区投资建设"5G精品网络建设项目"，总投资金额983.0亿元，全国第一。</t>
   </si>
   <si>
@@ -3386,9 +3383,6 @@
     <t>投资项目数量</t>
   </si>
   <si>
-    <t>2021年产业用地成交金额No.1：裕龙石化</t>
-  </si>
-  <si>
     <t>2021年，山东裕龙石化有限公司披露烟台龙口市产业用地成交金额162304.0万元，全国第一。</t>
   </si>
   <si>
@@ -3401,9 +3395,6 @@
     <t>二三甲医院数量</t>
   </si>
   <si>
-    <t>国家级经开区“最热门”主导产业：高端装备</t>
-  </si>
-  <si>
     <t>截至2021年底，全国国家级经济技术开发区共224个，其中以“高端装备与机械设备”为主导产业的国家级经济技术开发区134个，行业排名第一。</t>
   </si>
   <si>
@@ -3478,6 +3469,34 @@
   </si>
   <si>
     <t>ind_man_glb_ho_2279_lo.png</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年A股披露最大手笔投资：&lt;div&gt;中国移动北京项目&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年产业用地成交金额No.1：&lt;div&gt;裕龙石化&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家级经开区“最热门”主导产业：&lt;div&gt;高端装备&lt;/div&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般公共预算收入 / 一般公共预算支出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通劳动力平均年薪 / 人均GDP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均购房价格 / 普通劳动力平均月薪</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3485,7 +3504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -3493,6 +3512,7 @@
     <numFmt numFmtId="179" formatCode="#,##0.0"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -3849,7 +3869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -4072,6 +4092,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9186,7 +9207,7 @@
         <v>317</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -11998,8 +12019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12061,10 +12082,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D2" s="97" t="s">
         <v>1015</v>
@@ -12100,10 +12121,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C3" s="103" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D3" s="103" t="s">
         <v>1019</v>
@@ -12140,7 +12161,7 @@
         <v>1021</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D4" s="97" t="s">
         <v>1022</v>
@@ -12207,10 +12228,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C6" s="97" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D6" s="103" t="s">
         <v>1032</v>
@@ -12247,7 +12268,7 @@
         <v>1034</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D7" s="97" t="s">
         <v>1035</v>
@@ -12279,19 +12300,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D8" s="97" t="s">
         <v>1037</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>1038</v>
       </c>
       <c r="E8" s="104" t="s">
         <v>1029</v>
       </c>
       <c r="F8" s="106" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G8" s="107">
         <v>44621</v>
@@ -12300,16 +12321,16 @@
       <c r="I8" s="99"/>
       <c r="J8" s="103"/>
       <c r="K8" s="102" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L8" s="102" t="s">
         <v>1040</v>
-      </c>
-      <c r="L8" s="102" t="s">
-        <v>1041</v>
       </c>
       <c r="M8" s="102" t="s">
         <v>77</v>
       </c>
       <c r="N8" s="105" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O8" s="101"/>
     </row>
@@ -12318,19 +12339,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D9" s="103" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E9" s="104" t="s">
         <v>1029</v>
       </c>
       <c r="F9" s="104" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G9" s="107">
         <v>44621</v>
@@ -12339,7 +12360,7 @@
       <c r="I9" s="99"/>
       <c r="J9" s="103"/>
       <c r="K9" s="102" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L9" s="102" t="s">
         <v>55</v>
@@ -12355,19 +12376,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C10" s="103" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E10" s="104" t="s">
         <v>1029</v>
       </c>
       <c r="F10" s="106" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G10" s="107">
         <v>44621</v>
@@ -12376,10 +12397,10 @@
       <c r="I10" s="99"/>
       <c r="J10" s="103"/>
       <c r="K10" s="102" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L10" s="102" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M10" s="103" t="s">
         <v>56</v>
@@ -12392,19 +12413,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>1047</v>
+        <v>1071</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E11" s="104" t="s">
         <v>1029</v>
       </c>
       <c r="F11" s="104" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G11" s="107">
         <v>44621</v>
@@ -12413,10 +12434,10 @@
       <c r="I11" s="99"/>
       <c r="J11" s="103"/>
       <c r="K11" s="102" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L11" s="102" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="100" t="s">
@@ -12429,13 +12450,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E12" s="98" t="s">
         <v>1016</v>
@@ -12450,7 +12471,7 @@
       <c r="I12" s="99"/>
       <c r="J12" s="97"/>
       <c r="K12" s="96" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="L12" s="96" t="s">
         <v>73</v>
@@ -12464,19 +12485,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="102" t="s">
-        <v>1052</v>
+        <v>1072</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="E13" s="104" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="G13" s="107">
         <v>44621</v>
@@ -12485,7 +12506,7 @@
       <c r="I13" s="99"/>
       <c r="J13" s="103"/>
       <c r="K13" s="102" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="L13" s="102"/>
       <c r="M13" s="103"/>
@@ -12518,7 +12539,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12818,11 +12839,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12835,7 +12856,7 @@
     <col min="8" max="8" width="58.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
@@ -12857,8 +12878,11 @@
       <c r="G1" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="11" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -12881,7 +12905,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -12904,7 +12928,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -12927,7 +12951,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -12950,7 +12974,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -12973,7 +12997,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -12996,7 +13020,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -13019,7 +13043,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -13042,7 +13066,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -13065,7 +13089,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -13088,7 +13112,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -13111,7 +13135,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -13134,7 +13158,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -13157,7 +13181,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -13180,7 +13204,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -13203,7 +13227,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
@@ -13226,7 +13250,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -13249,7 +13273,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
@@ -13272,7 +13296,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>7</v>
       </c>
@@ -13295,7 +13319,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>7</v>
       </c>
@@ -13318,7 +13342,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -13340,8 +13364,11 @@
       <c r="G22">
         <v>2020</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
@@ -13363,8 +13390,11 @@
       <c r="G23">
         <v>2020</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
@@ -13386,8 +13416,11 @@
       <c r="G24">
         <v>2020</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>9</v>
       </c>
@@ -13409,8 +13442,11 @@
       <c r="G25">
         <v>2020</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>9</v>
       </c>
@@ -13432,8 +13468,11 @@
       <c r="G26">
         <v>2020</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="28" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
@@ -13455,8 +13494,9 @@
       <c r="G27">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
@@ -13479,7 +13519,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -13502,7 +13542,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
@@ -13525,7 +13565,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>17</v>
       </c>
@@ -13548,7 +13588,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>206</v>
       </c>
@@ -14307,7 +14347,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>11</v>
       </c>
@@ -14330,7 +14370,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>11</v>
       </c>
@@ -14353,7 +14393,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>251</v>
       </c>
@@ -14376,7 +14416,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>251</v>
       </c>
@@ -14389,7 +14429,7 @@
       <c r="D68" t="s">
         <v>257</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="108">
         <v>74258</v>
       </c>
       <c r="F68" t="s">
@@ -14399,7 +14439,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>251</v>
       </c>
@@ -14412,7 +14452,7 @@
       <c r="D69" t="s">
         <v>258</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="108">
         <v>72240</v>
       </c>
       <c r="F69" t="s">
@@ -14422,7 +14462,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>251</v>
       </c>
@@ -14435,7 +14475,7 @@
       <c r="D70" t="s">
         <v>259</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="108">
         <v>64181</v>
       </c>
       <c r="F70" t="s">
@@ -14445,7 +14485,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>251</v>
       </c>
@@ -14458,7 +14498,7 @@
       <c r="D71" t="s">
         <v>260</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="108">
         <v>63029</v>
       </c>
       <c r="F71" t="s">
@@ -14468,7 +14508,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>225</v>
       </c>
@@ -14490,8 +14530,11 @@
       <c r="G72">
         <v>2020</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" s="28" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>21</v>
       </c>
@@ -14513,8 +14556,11 @@
       <c r="G73">
         <v>2020</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" s="28" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>21</v>
       </c>
@@ -14536,8 +14582,11 @@
       <c r="G74">
         <v>2020</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74" s="28" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>21</v>
       </c>
@@ -14559,8 +14608,11 @@
       <c r="G75">
         <v>2020</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75" s="28" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>21</v>
       </c>
@@ -14582,8 +14634,11 @@
       <c r="G76">
         <v>2020</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76" s="28" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>22</v>
       </c>
@@ -14605,8 +14660,11 @@
       <c r="G77">
         <v>2020</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77" s="28" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>22</v>
       </c>
@@ -14628,8 +14686,11 @@
       <c r="G78">
         <v>2020</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78" s="28" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>22</v>
       </c>
@@ -14651,8 +14712,11 @@
       <c r="G79">
         <v>2020</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79" s="28" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>22</v>
       </c>
@@ -14674,8 +14738,11 @@
       <c r="G80">
         <v>2020</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80" s="28" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>22</v>
       </c>
@@ -14697,8 +14764,11 @@
       <c r="G81">
         <v>2020</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81" s="28" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>12</v>
       </c>
@@ -14721,7 +14791,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>12</v>
       </c>
@@ -14744,7 +14814,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>12</v>
       </c>
@@ -14767,7 +14837,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>12</v>
       </c>
@@ -14790,7 +14860,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>12</v>
       </c>
@@ -14813,7 +14883,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>241</v>
       </c>
@@ -14836,7 +14906,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>13</v>
       </c>
@@ -14859,7 +14929,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>13</v>
       </c>
@@ -14882,7 +14952,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>13</v>
       </c>
@@ -14905,7 +14975,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>13</v>
       </c>
@@ -14928,7 +14998,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>23</v>
       </c>
@@ -14951,7 +15021,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>23</v>
       </c>
@@ -14974,7 +15044,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>23</v>
       </c>
@@ -14997,7 +15067,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>23</v>
       </c>
@@ -15020,7 +15090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>23</v>
       </c>
@@ -15159,7 +15229,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101"/>
+  <autoFilter ref="A1:H1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
+++ b/code/backend/REAccess.Mobile.Api/DataFiles/mobile_data_20220307.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7092" tabRatio="866" firstSheet="13" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="指引说明" sheetId="1" r:id="rId1"/>
@@ -3512,7 +3512,7 @@
     <numFmt numFmtId="179" formatCode="#,##0.0"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -4092,7 +4092,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12019,8 +12019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -12097,7 +12097,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H2" s="99"/>
       <c r="I2" s="99"/>
@@ -12136,7 +12136,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
@@ -12173,7 +12173,7 @@
         <v>1023</v>
       </c>
       <c r="G4" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H4" s="99"/>
       <c r="I4" s="99"/>
@@ -12208,7 +12208,7 @@
         <v>1030</v>
       </c>
       <c r="G5" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H5" s="99"/>
       <c r="I5" s="99"/>
@@ -12243,7 +12243,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H6" s="99"/>
       <c r="I6" s="99"/>
@@ -12280,7 +12280,7 @@
         <v>1023</v>
       </c>
       <c r="G7" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
@@ -12315,7 +12315,7 @@
         <v>1038</v>
       </c>
       <c r="G8" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H8" s="99"/>
       <c r="I8" s="99"/>
@@ -12354,7 +12354,7 @@
         <v>1038</v>
       </c>
       <c r="G9" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
@@ -12391,7 +12391,7 @@
         <v>1038</v>
       </c>
       <c r="G10" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H10" s="99"/>
       <c r="I10" s="99"/>
@@ -12428,7 +12428,7 @@
         <v>1038</v>
       </c>
       <c r="G11" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H11" s="99"/>
       <c r="I11" s="99"/>
@@ -12465,7 +12465,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="99"/>
@@ -12500,7 +12500,7 @@
         <v>1051</v>
       </c>
       <c r="G13" s="107">
-        <v>44621</v>
+        <v>44641</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
@@ -12841,7 +12841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
